--- a/spliced/falling/2023-03-25_17-59-26/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-26/accelerometer_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.280028343200684</v>
+        <v>-3.012916564941406</v>
       </c>
       <c r="B2" t="n">
-        <v>7.839587211608887</v>
+        <v>8.089370727539062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0374422371387481</v>
+        <v>-0.1633265316486358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.331558704376221</v>
+        <v>-3.395848751068115</v>
       </c>
       <c r="B3" t="n">
-        <v>7.833842277526855</v>
+        <v>8.023316383361816</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1311583817005157</v>
+        <v>0.0382503271102905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.715910911560059</v>
+        <v>-3.384797096252441</v>
       </c>
       <c r="B4" t="n">
-        <v>7.601772308349609</v>
+        <v>7.934267520904541</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8390151262283325</v>
+        <v>0.07479587197303771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.635088920593262</v>
+        <v>-3.632324695587158</v>
       </c>
       <c r="B5" t="n">
-        <v>7.303267478942871</v>
+        <v>7.965863227844238</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.838643550872803</v>
+        <v>0.0220168232917785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.690509796142578</v>
+        <v>-3.280028343200684</v>
       </c>
       <c r="B6" t="n">
-        <v>6.705544471740723</v>
+        <v>7.839587211608887</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.344899177551269</v>
+        <v>0.0374422371387481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.218070983886719</v>
+        <v>-3.331558704376221</v>
       </c>
       <c r="B7" t="n">
-        <v>5.676623344421387</v>
+        <v>7.833842277526855</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.678865909576416</v>
+        <v>-0.1311583817005157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.941818714141846</v>
+        <v>-3.715910911560059</v>
       </c>
       <c r="B8" t="n">
-        <v>3.218802928924561</v>
+        <v>7.601772308349609</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.337108850479126</v>
+        <v>-0.8390151262283325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-7.670186996459961</v>
+        <v>-3.635088920593262</v>
       </c>
       <c r="B9" t="n">
-        <v>2.646533727645874</v>
+        <v>7.303267478942871</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.358609437942505</v>
+        <v>-1.838643550872803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.754570007324219</v>
+        <v>-3.690509796142578</v>
       </c>
       <c r="B10" t="n">
-        <v>5.042309761047363</v>
+        <v>6.705544471740723</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.384928703308105</v>
+        <v>-2.344899177551269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-7.390841484069824</v>
+        <v>-4.218070983886719</v>
       </c>
       <c r="B11" t="n">
-        <v>6.343035697937012</v>
+        <v>5.676623344421387</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.130713939666748</v>
+        <v>-2.678865909576416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.7764301300048828</v>
+        <v>-5.941818714141846</v>
       </c>
       <c r="B12" t="n">
-        <v>4.676393508911133</v>
+        <v>3.218802928924561</v>
       </c>
       <c r="C12" t="n">
-        <v>5.587088108062744</v>
+        <v>-3.337108850479126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2559165954589844</v>
+        <v>-7.670186996459961</v>
       </c>
       <c r="B13" t="n">
-        <v>4.696257591247559</v>
+        <v>2.646533727645874</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5933610200881958</v>
+        <v>-3.358609437942505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15.17343902587891</v>
+        <v>-6.754570007324219</v>
       </c>
       <c r="B14" t="n">
-        <v>6.087247848510742</v>
+        <v>5.042309761047363</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7045816779136658</v>
+        <v>-5.384928703308105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.419233322143555</v>
+        <v>-7.390841484069824</v>
       </c>
       <c r="B15" t="n">
-        <v>7.200580596923828</v>
+        <v>6.343035697937012</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1463413685560226</v>
+        <v>-4.130713939666748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.139339923858643</v>
+        <v>-0.7764301300048828</v>
       </c>
       <c r="B16" t="n">
-        <v>7.70880126953125</v>
+        <v>4.676393508911133</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3070659637451172</v>
+        <v>5.587088108062744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.675087451934815</v>
+        <v>0.2559165954589844</v>
       </c>
       <c r="B17" t="n">
-        <v>7.276998043060303</v>
+        <v>4.696257591247559</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0094249583780765</v>
+        <v>0.5933610200881958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.29545783996582</v>
+        <v>15.17343902587891</v>
       </c>
       <c r="B18" t="n">
-        <v>7.679934978485107</v>
+        <v>6.087247848510742</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2107167989015579</v>
+        <v>-0.7045816779136658</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.693088531494141</v>
+        <v>3.419233322143555</v>
       </c>
       <c r="B19" t="n">
-        <v>6.483500003814697</v>
+        <v>7.200580596923828</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4083580672740936</v>
+        <v>0.1463413685560226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.303851127624512</v>
+        <v>2.139339923858643</v>
       </c>
       <c r="B20" t="n">
-        <v>7.912090301513672</v>
+        <v>7.70880126953125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.230869710445404</v>
+        <v>0.3070659637451172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.314035892486572</v>
+        <v>3.675087451934815</v>
       </c>
       <c r="B21" t="n">
-        <v>6.959295749664307</v>
+        <v>7.276998043060303</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2122190594673156</v>
+        <v>-0.0094249583780765</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-26/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-26/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.012916564941406</v>
+        <v>-3.58582592010498</v>
       </c>
       <c r="B2" t="n">
-        <v>8.089370727539062</v>
+        <v>8.237812042236328</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1633265316486358</v>
+        <v>0.2284512519836425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.395848751068115</v>
+        <v>-3.345468521118164</v>
       </c>
       <c r="B3" t="n">
-        <v>8.023316383361816</v>
+        <v>8.276437759399414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0382503271102905</v>
+        <v>-0.0355764925479888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.384797096252441</v>
+        <v>-3.182104587554932</v>
       </c>
       <c r="B4" t="n">
-        <v>7.934267520904541</v>
+        <v>8.366311073303223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07479587197303771</v>
+        <v>0.2440185844898224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.632324695587158</v>
+        <v>-3.532341480255127</v>
       </c>
       <c r="B5" t="n">
-        <v>7.965863227844238</v>
+        <v>8.214254379272461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0220168232917785</v>
+        <v>0.022090196609497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.280028343200684</v>
+        <v>-3.395359516143799</v>
       </c>
       <c r="B6" t="n">
-        <v>7.839587211608887</v>
+        <v>8.257164001464844</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0374422371387481</v>
+        <v>0.0318913161754608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.331558704376221</v>
+        <v>-3.210868835449219</v>
       </c>
       <c r="B7" t="n">
-        <v>7.833842277526855</v>
+        <v>8.186161994934082</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1311583817005157</v>
+        <v>-0.0299544632434844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.715910911560059</v>
+        <v>-3.197915077209473</v>
       </c>
       <c r="B8" t="n">
-        <v>7.601772308349609</v>
+        <v>8.212710380554199</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8390151262283325</v>
+        <v>0.0095521211624145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.635088920593262</v>
+        <v>-3.255885124206543</v>
       </c>
       <c r="B9" t="n">
-        <v>7.303267478942871</v>
+        <v>8.21357250213623</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.838643550872803</v>
+        <v>-0.070087194442749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.690509796142578</v>
+        <v>-3.168186187744141</v>
       </c>
       <c r="B10" t="n">
-        <v>6.705544471740723</v>
+        <v>8.229218482971191</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.344899177551269</v>
+        <v>-0.0939638018608093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.218070983886719</v>
+        <v>-3.290424346923828</v>
       </c>
       <c r="B11" t="n">
-        <v>5.676623344421387</v>
+        <v>8.159111976623535</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.678865909576416</v>
+        <v>-0.1956053972244262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-5.941818714141846</v>
+        <v>-3.586246490478516</v>
       </c>
       <c r="B12" t="n">
-        <v>3.218802928924561</v>
+        <v>8.05996036529541</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.337108850479126</v>
+        <v>-0.0569053888320922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.670186996459961</v>
+        <v>-3.300580024719238</v>
       </c>
       <c r="B13" t="n">
-        <v>2.646533727645874</v>
+        <v>8.124805450439453</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.358609437942505</v>
+        <v>-0.1510338187217712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-6.754570007324219</v>
+        <v>-2.94456958770752</v>
       </c>
       <c r="B14" t="n">
-        <v>5.042309761047363</v>
+        <v>8.213338851928711</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.384928703308105</v>
+        <v>-0.0691232085227966</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-7.390841484069824</v>
+        <v>-3.094478130340576</v>
       </c>
       <c r="B15" t="n">
-        <v>6.343035697937012</v>
+        <v>8.185011863708496</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.130713939666748</v>
+        <v>-0.1414701342582702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.7764301300048828</v>
+        <v>-3.334782123565674</v>
       </c>
       <c r="B16" t="n">
-        <v>4.676393508911133</v>
+        <v>8.0909423828125</v>
       </c>
       <c r="C16" t="n">
-        <v>5.587088108062744</v>
+        <v>-0.0672928094863891</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2559165954589844</v>
+        <v>-3.368669509887696</v>
       </c>
       <c r="B17" t="n">
-        <v>4.696257591247559</v>
+        <v>8.071453094482422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5933610200881958</v>
+        <v>0.1171565353870391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15.17343902587891</v>
+        <v>-3.412579536437988</v>
       </c>
       <c r="B18" t="n">
-        <v>6.087247848510742</v>
+        <v>8.035589218139648</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7045816779136658</v>
+        <v>0.0592367351055145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.419233322143555</v>
+        <v>-3.019937038421631</v>
       </c>
       <c r="B19" t="n">
-        <v>7.200580596923828</v>
+        <v>8.054733276367188</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1463413685560226</v>
+        <v>-0.1420263051986694</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.139339923858643</v>
+        <v>-3.012916564941406</v>
       </c>
       <c r="B20" t="n">
-        <v>7.70880126953125</v>
+        <v>8.089370727539062</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3070659637451172</v>
+        <v>-0.1633265316486358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.675087451934815</v>
+        <v>-3.395848751068115</v>
       </c>
       <c r="B21" t="n">
-        <v>7.276998043060303</v>
+        <v>8.023316383361816</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0094249583780765</v>
+        <v>0.0382503271102905</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.384797096252441</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.934267520904541</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.07479587197303771</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-3.632324695587158</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7.965863227844238</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0220168232917785</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.280028343200684</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.839587211608887</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0374422371387481</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.331558704376221</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.833842277526855</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1311583817005157</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.715910911560059</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.601772308349609</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.8390151262283325</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.635088920593262</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.303267478942871</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.838643550872803</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-3.690509796142578</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.705544471740723</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.344899177551269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-4.218070983886719</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.676623344421387</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.678865909576416</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-5.941818714141846</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.218802928924561</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.337108850479126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-7.670186996459961</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.646533727645874</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.358609437942505</v>
       </c>
     </row>
   </sheetData>
